--- a/biology/Microbiologie/Bonamia_(protiste)/Bonamia_(protiste).xlsx
+++ b/biology/Microbiologie/Bonamia_(protiste)/Bonamia_(protiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bonamia est un genre de protistes de la famille des Haplosporidiidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Yves Pichot, Michel Comps, Gilbert Tige, Henri Grizel et Marie-Agnès Rabouin, « Recherches sur Bonamia ostreae gen. n., sp. n., parasite nouveau de l'huître plate Ostrea edulis L. », Revue des Travaux de l'Institut des Pêches Maritimes, Paris et Nantes, Ifremer, vol. 43, no 1,‎ janvier 1980, p. 131-140 (ISSN 0035-2276, lire en ligne)
 </t>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (9 mars 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (9 mars 2019) :
 Bonamia exitiosa Hine, Cochennac &amp; Berthe, 2001
 Bonamia ostreae Pichot, Comps, Tigé, Grizel &amp; Rabouin, 1980
 Bonamia perspora Carnegie, Burreson, Hine, Stokes, Audemard, Bishop &amp; Peterson, 2006
